--- a/FSDAtestHPC/test-results/regressionTS_test.xlsx
+++ b/FSDAtestHPC/test-results/regressionTS_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="40">
   <si>
     <t>FileName</t>
   </si>
@@ -212,6 +212,120 @@
   <si>
     <t>TestActivity</t>
   </si>
+  <si>
+    <t>close all
+rng(1)
+model=struct;
+model.trend=1;
+model.seasonal=103;
+modelSIM=model;
+modelSIM.trendb=[0 0];
+modelSIM.seasonalb=40*[0.1 -0.5 0.2 -0.3 0.3 -0.1 0.222];
+modelSIM.signal2noiseratio=20;
+T=100;
+% Simulate
+outSIM=simulateTS(T,'model',modelSIM,'plots',1);
+ySIM=outSIM.y;
+% Estimate
+outEST=LTSts(ySIM,'model',model,'plots',1);
+% Forecast
+outFORE=forecastTS(outEST,'model',model,'plots',1);</t>
+  </si>
+  <si>
+    <t>rng('default')
+n=200;
+rng(123456);
+outSIM=simulateTS(n,'plots',1);
+% Uncontaminated data
+y=outSIM.y;
+% FSRts and LTSts on Uncontaminated data (conflev defaults differ)
+[outFSRu] = FSRts(y,'plots',1);
+[outLTSu] = LTSts(y,'plots',1,'conflev',0.99);
+outFSRu.outliers
+outLTSu.outliers'
+% Contaminated data
+close all
+ycont=y;
+ycont(10:15) = ycont(10:15)+2*mean(ycont)*sign(ycont(10:15));
+% FSRts and LTSts on contaminated data (conflev defaults differ)
+[outFSR] = FSRts(ycont,'plots',1);
+[outLTS] = LTSts(ycont,'plots',1,'conflev',0.99);
+outFSR.outliers
+outLTS.outliers'</t>
+  </si>
+  <si>
+    <t>load('fishery');
+y=fishery.data(:,1);
+bsbini=[97    77    12     2    26    95    10    60    94   135     7    61   114];
+[Un,BB]=FSRtsbsb(y,bsbini);</t>
+  </si>
+  <si>
+    <t>%   1949 1950 1951 1952 1953 1954 1955 1956 1957 1958 1959 1960
+y = [112  115  145  171  196  204  242  284  315  340  360  417    % Jan
+118  126  150  180  196  188  233  277  301  318  342  391    % Feb
+132  141  178  193  236  235  267  317  356  362  406  419    % Mar
+129  135  163  181  235  227  269  313  348  348  396  461    % Apr
+121  125  172  183  229  234  270  318  355  363  420  472    % May
+135  149  178  218  243  264  315  374  422  435  472  535    % Jun
+148  170  199  230  264  302  364  413  465  491  548  622    % Jul
+148  170  199  242  272  293  347  405  467  505  559  606    % Aug
+136  158  184  209  237  259  312  355  404  404  463  508    % Sep
+119  133  162  191  211  229  274  306  347  359  407  461    % Oct
+104  114  146  172  180  203  237  271  305  310  362  390    % Nov
+118  140  166  194  201  229  278  306  336  337  405  432 ]; % Dec
+% Source:
+% http://datamarket.com/data/list/?q=provider:tsdl
+y=(y(:));
+% Monitor minimum deletion residual in each step of the forward search.
+% Start from a random subset. The final part of the trajectory is
+% completely unaffected by the starting point.
+% Plot the trajectory of mdr.
+mdr=FSRtsmdr(y,0,'plots',1);</t>
+  </si>
+  <si>
+    <t>% data model
+model=struct;
+model.trend=1;                  % linear trend
+model.trendb=[0 1];             % parameters of the linear trend
+model.s=12;                     % monthly time series
+model.seasonal=1;               % 1 harmonic with linear trend
+model.seasonalb=[10 10];        % parameter for one harmonic with linear trend
+model.lshiftb=100;              % level shift amplitude
+model.lshift= 30;               % level shift amplitude
+model.signal2noiseratio = 100;  % signal to noise
+n = 100;                        % sample size
+tmp = rand(n,1);
+model.X = tmp.*[1:n]';          % a extra covariate
+model.Xb = 1;                   % beta coefficient of the covariate
+% generate data
+out_sim=simulateTS(n,'plots',1,'model',model);
+%run LTStsVarSel with all default options
+rng(1);
+[out_model_0, out_reduced_0] = LTStsVarSel(out_sim.y);
+% optional: add a FS step to the LTSts estimator
+% outFS = FSRts(out_sim.y,'model',out_model_0);
+% To be fixed: 'Non existent user option found-&amp;gt; '    'ARp'</t>
+  </si>
+  <si>
+    <t>%   1949 1950 1951 1952 1953 1954 1955 1956 1957 1958 1959 1960
+y = [112  115  145  171  196  204  242  284  315  340  360  417    % Jan
+118  126  150  180  196  188  233  277  301  318  342  391    % Feb
+132  141  178  193  236  235  267  317  356  362  406  419    % Mar
+129  135  163  181  235  227  269  313  348  348  396  461    % Apr
+121  125  172  183  229  234  270  318  355  363  420  472    % May
+135  149  178  218  243  264  315  374  422  435  472  535    % Jun
+148  170  199  230  264  302  364  413  465  491  548  622    % Jul
+148  170  199  242  272  293  347  405  467  505  559  606    % Aug
+136  158  184  209  237  259  312  355  404  404  463  508    % Sep
+119  133  162  191  211  229  274  306  347  359  407  461    % Oct
+104  114  146  172  180  203  237  271  305  310  362  390    % Nov
+118  140  166  194  201  229  278  306  336  337  405  432 ]; % Dec
+% Source:
+% http://datamarket.com/data/list/?q=provider:tsdl
+y=(y(:));
+% linear trend + just one harmonic for seasonal
+out=regressts(y);</t>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -241,14 +355,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,905 +389,905 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>27.517918999999999</v>
+        <v>29.189855999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>2.680631</v>
+        <v>2.8107139999999999</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4">
-        <v>8.4139330000000001</v>
+        <v>9.5861420000000006</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5">
-        <v>161.164365</v>
+        <v>188.95138800000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6">
-        <v>10.019463</v>
+        <v>11.373393999999999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7">
-        <v>139.62174200000001</v>
+        <v>168.03223800000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D8">
-        <v>3.1798639999999998</v>
+        <v>3.6557590000000002</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9">
-        <v>3.7192590000000001</v>
+        <v>4.2281890000000004</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10">
-        <v>1.5373490000000001</v>
+        <v>1.6571899999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>8.7543330000000008</v>
+        <v>9.3356759999999994</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>15.336746</v>
+        <v>17.239270000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>14.531071000000001</v>
+        <v>16.392318</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>10.916366999999999</v>
+        <v>11.011870999999999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>6.5365869999999999</v>
+        <v>7.0422219999999998</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16">
-        <v>209.036463</v>
+        <v>240.718737</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>0.55855399999999999</v>
+        <v>0.66885300000000003</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>5.33317</v>
+        <v>5.544937</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
+      <c r="F18" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D19">
-        <v>1.564392</v>
+        <v>1.611019</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
+      <c r="F19" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D20">
-        <v>0.60080100000000003</v>
+        <v>0.66083000000000003</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>0.83352999999999999</v>
+        <v>0.88395100000000004</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
+      <c r="F21" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22">
-        <v>0.751946</v>
+        <v>0.82266099999999998</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
+      <c r="F22" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>0.86286499999999999</v>
+        <v>0.89533499999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
+      <c r="F23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>10.854077999999999</v>
+        <v>12.221952</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>29</v>
+      <c r="F24" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D25">
-        <v>3.163748</v>
+        <v>3.5719630000000002</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>30</v>
+      <c r="F25" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>54.592925000000001</v>
+        <v>60.627654</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>30</v>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D27">
-        <v>105.361349</v>
+        <v>105.336564</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>30</v>
+      <c r="F27" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D28">
-        <v>2.7819530000000001</v>
+        <v>3.061582</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>30</v>
+      <c r="F28" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D29">
-        <v>0.27745199999999998</v>
+        <v>0.25476399999999999</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>31</v>
+      <c r="F29" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>1.236194</v>
+        <v>1.351871</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>31</v>
+      <c r="F30" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D31">
-        <v>0.75155499999999997</v>
+        <v>0.78040399999999999</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>31</v>
+      <c r="F31" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D32">
-        <v>0.83904000000000001</v>
+        <v>0.87485900000000005</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>31</v>
+      <c r="F32" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33">
-        <v>1.2000040000000001</v>
+        <v>1.360228</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>31</v>
+      <c r="F33" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D34">
-        <v>0.57896899999999996</v>
+        <v>0.613236</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>0.478489</v>
+        <v>0.53571800000000003</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36">
-        <v>0.43742500000000001</v>
+        <v>0.49407899999999999</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D37">
-        <v>0.48823</v>
+        <v>0.48741699999999999</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38">
-        <v>0.397787</v>
+        <v>0.43469200000000002</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>0.39682099999999998</v>
+        <v>0.43520799999999998</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D40">
-        <v>0.400862</v>
+        <v>0.43313800000000002</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D41">
-        <v>0.24695600000000001</v>
+        <v>0.25502200000000003</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D42">
-        <v>0.44647599999999998</v>
+        <v>0.49642599999999998</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D43">
-        <v>0.44560699999999998</v>
+        <v>0.437691</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D44">
-        <v>0.818662</v>
+        <v>0.92979500000000004</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D45">
-        <v>1.359869</v>
+        <v>1.5335430000000001</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>32</v>
       </c>
     </row>
